--- a/chiloPro/template-series_english/structure-books.xlsx
+++ b/chiloPro/template-series_english/structure-books.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="26100" windowHeight="16260" tabRatio="827"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="26100" windowHeight="16260" tabRatio="827" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="series-information" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="text">#REF!</definedName>
     <definedName name="type">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="103">
   <si>
     <t>output-path</t>
     <phoneticPr fontId="1"/>
@@ -693,7 +693,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -961,15 +961,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1105,7 +1096,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1242,15 +1233,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1260,6 +1242,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="37" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1326,9 +1329,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1355,27 +1355,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="37" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1702,7 +1681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
@@ -1811,7 +1790,7 @@
       <c r="C8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="60" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1823,7 +1802,7 @@
       <c r="C9" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="57"/>
+      <c r="D9" s="61"/>
     </row>
     <row r="10" spans="1:5" ht="14.25">
       <c r="A10" s="1" t="s">
@@ -1833,7 +1812,7 @@
       <c r="C10" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="57"/>
+      <c r="D10" s="61"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -1843,7 +1822,7 @@
       <c r="C11" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="58"/>
+      <c r="D11" s="62"/>
     </row>
     <row r="12" spans="1:5" ht="99.75">
       <c r="A12" s="1" t="s">
@@ -1901,10 +1880,10 @@
       <c r="C16" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="56" t="s">
+      <c r="D16" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="59" t="s">
+      <c r="E16" s="63" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1916,8 +1895,8 @@
       <c r="C17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="59"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="63"/>
     </row>
     <row r="18" spans="1:5" ht="14.25">
       <c r="A18" s="1" t="s">
@@ -1927,8 +1906,8 @@
       <c r="C18" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="58"/>
-      <c r="E18" s="59"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="63"/>
     </row>
     <row r="19" spans="1:5" ht="28.5">
       <c r="A19" s="1" t="s">
@@ -1941,29 +1920,29 @@
       <c r="D19" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="59"/>
+      <c r="E19" s="63"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="49"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="53"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="50"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="52"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="56"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="50"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="52"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="56"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="53"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="55"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="59"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -2017,27 +1996,27 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="37.5" customHeight="1" thickTop="1">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
     </row>
     <row r="3" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A3" s="83"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
     </row>
     <row r="4" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
     </row>
     <row r="5" spans="1:5" s="9" customFormat="1" ht="114">
       <c r="A5" s="35" t="s">
@@ -2081,39 +2060,39 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="24"/>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="66"/>
       <c r="E9" s="24"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="24"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="65"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="69"/>
       <c r="E10" s="24"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="24"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="65"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="69"/>
       <c r="E11" s="24"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="24"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="69"/>
       <c r="E12" s="24"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="24"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="68"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="72"/>
       <c r="E13" s="24"/>
     </row>
   </sheetData>
@@ -2134,9 +2113,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
@@ -2463,78 +2442,69 @@
       </c>
       <c r="K21" s="18"/>
     </row>
-    <row r="22" spans="1:11" s="41" customFormat="1" ht="36" customHeight="1">
+    <row r="22" spans="1:11" s="41" customFormat="1">
       <c r="D22" s="42"/>
-      <c r="I22" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="J22" s="69"/>
       <c r="K22" s="43"/>
     </row>
-    <row r="23" spans="1:11" s="44" customFormat="1">
-      <c r="D23" s="45"/>
-      <c r="K23" s="46"/>
-    </row>
-    <row r="24" spans="1:11" s="44" customFormat="1">
-      <c r="D24" s="45"/>
-      <c r="K24" s="46"/>
-    </row>
-    <row r="25" spans="1:11" s="24" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B25" s="70" t="s">
+    <row r="23" spans="1:11" s="41" customFormat="1">
+      <c r="D23" s="42"/>
+      <c r="K23" s="43"/>
+    </row>
+    <row r="24" spans="1:11" s="24" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B24" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="72"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="75"/>
+      <c r="K24" s="14"/>
+    </row>
+    <row r="25" spans="1:11" s="24" customFormat="1">
+      <c r="B25" s="76"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="78"/>
       <c r="K25" s="14"/>
     </row>
     <row r="26" spans="1:11" s="24" customFormat="1">
-      <c r="B26" s="73"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="75"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="78"/>
       <c r="K26" s="14"/>
     </row>
     <row r="27" spans="1:11" s="24" customFormat="1">
-      <c r="B27" s="73"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="75"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="78"/>
       <c r="K27" s="14"/>
     </row>
     <row r="28" spans="1:11" s="24" customFormat="1">
-      <c r="B28" s="73"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="75"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="78"/>
       <c r="K28" s="14"/>
     </row>
     <row r="29" spans="1:11" s="24" customFormat="1">
-      <c r="B29" s="73"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="75"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="78"/>
       <c r="K29" s="14"/>
     </row>
     <row r="30" spans="1:11" s="24" customFormat="1">
-      <c r="B30" s="73"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="75"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="81"/>
       <c r="K30" s="14"/>
-    </row>
-    <row r="31" spans="1:11" s="24" customFormat="1">
-      <c r="B31" s="76"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="78"/>
-      <c r="K31" s="14"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="2">
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="B25:E31"/>
+  <mergeCells count="1">
+    <mergeCell ref="B24:E30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/chiloPro/template-series_english/structure-books.xlsx
+++ b/chiloPro/template-series_english/structure-books.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="26100" windowHeight="16260" tabRatio="827" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="26100" windowHeight="16260" tabRatio="827"/>
   </bookViews>
   <sheets>
     <sheet name="series-information" sheetId="1" r:id="rId1"/>
@@ -471,11 +471,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>YoutubeID of the explanation video
-─────</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">CCBY licence
 ────────
 Unnecessary to enter when not CCBY. </t>
@@ -523,6 +518,14 @@
   </si>
   <si>
     <t>temp_cover_image.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Youtube ID of the explanation video 
+─────
+When delivering the explanation videos of Web CHiLO Book from Youtube, enter the video ID included in the registered Youtube video URL.
+(e.g.) The part after "?v=" of the URL: https://www.youtube.com/watch?v=W6l-nifsu6w
+Note：When you enter the ID, videos cannot be played in local environment.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1681,7 +1684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
@@ -1997,7 +2000,7 @@
     </row>
     <row r="2" spans="1:5" ht="37.5" customHeight="1" thickTop="1">
       <c r="A2" s="44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="46"/>
@@ -2061,7 +2064,7 @@
     <row r="9" spans="1:5">
       <c r="A9" s="24"/>
       <c r="B9" s="64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" s="65"/>
       <c r="D9" s="66"/>
@@ -2115,7 +2118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
@@ -2126,23 +2129,23 @@
     <col min="6" max="6" width="27.125" customWidth="1"/>
     <col min="7" max="7" width="23.5" customWidth="1"/>
     <col min="8" max="8" width="27.75" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="20.375" customWidth="1"/>
+    <col min="9" max="9" width="31.25" customWidth="1"/>
     <col min="10" max="10" width="15.625" customWidth="1"/>
     <col min="11" max="11" width="8.875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1">
       <c r="A1" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>93</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>94</v>
       </c>
       <c r="C1" s="26" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>27</v>
@@ -2163,7 +2166,7 @@
         <v>32</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickTop="1">
@@ -2174,7 +2177,7 @@
       <c r="C2" s="31"/>
       <c r="D2" s="32"/>
       <c r="E2" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
@@ -2406,15 +2409,15 @@
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
       <c r="K20" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="25" customFormat="1" ht="108">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="25" customFormat="1" ht="189">
       <c r="A21" s="38" t="s">
         <v>85</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" s="39" t="s">
         <v>86</v>
@@ -2435,10 +2438,10 @@
         <v>42</v>
       </c>
       <c r="I21" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="J21" s="39" t="s">
         <v>91</v>
-      </c>
-      <c r="J21" s="39" t="s">
-        <v>92</v>
       </c>
       <c r="K21" s="18"/>
     </row>
@@ -2452,7 +2455,7 @@
     </row>
     <row r="24" spans="1:11" s="24" customFormat="1" ht="14.25" customHeight="1">
       <c r="B24" s="73" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C24" s="74"/>
       <c r="D24" s="74"/>
@@ -2502,7 +2505,7 @@
       <c r="K30" s="14"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="1">
     <mergeCell ref="B24:E30"/>
   </mergeCells>

--- a/chiloPro/template-series_english/structure-books.xlsx
+++ b/chiloPro/template-series_english/structure-books.xlsx
@@ -23,7 +23,7 @@
     <definedName name="text">#REF!</definedName>
     <definedName name="type">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -323,10 +323,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Issued date of first edition</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Owner of copyright</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -526,6 +522,10 @@
 When delivering the explanation videos of Web CHiLO Book from Youtube, enter the video ID included in the registered Youtube video URL.
 (e.g.) The part after "?v=" of the URL: https://www.youtube.com/watch?v=W6l-nifsu6w
 Note：When you enter the ID, videos cannot be played in local environment.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（Required）Issued date of first edition</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="6" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="D10" s="61"/>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="62"/>
     </row>
@@ -1833,10 +1833,10 @@
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25">
@@ -1845,10 +1845,10 @@
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="28.5">
@@ -1857,10 +1857,10 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.25">
@@ -1869,10 +1869,10 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.25">
@@ -1881,13 +1881,13 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="60" t="s">
-        <v>74</v>
-      </c>
       <c r="E16" s="63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.25">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" s="61"/>
       <c r="E17" s="63"/>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18" s="62"/>
       <c r="E18" s="63"/>
@@ -1918,10 +1918,10 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="E19" s="63"/>
     </row>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="2" spans="1:5" ht="37.5" customHeight="1" thickTop="1">
       <c r="A2" s="44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="46"/>
@@ -2023,19 +2023,19 @@
     </row>
     <row r="5" spans="1:5" s="9" customFormat="1" ht="114">
       <c r="A5" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="C5" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="D5" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="E5" s="35" t="s">
         <v>83</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="9" customFormat="1" ht="28.5">
@@ -2044,7 +2044,7 @@
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2064,7 +2064,7 @@
     <row r="9" spans="1:5">
       <c r="A9" s="24"/>
       <c r="B9" s="64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="65"/>
       <c r="D9" s="66"/>
@@ -2136,16 +2136,16 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1">
       <c r="A1" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>92</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>93</v>
       </c>
       <c r="C1" s="26" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>27</v>
@@ -2166,7 +2166,7 @@
         <v>32</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickTop="1">
@@ -2177,7 +2177,7 @@
       <c r="C2" s="31"/>
       <c r="D2" s="32"/>
       <c r="E2" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
@@ -2409,39 +2409,39 @@
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
       <c r="K20" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="25" customFormat="1" ht="189">
       <c r="A21" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="39" t="s">
+      <c r="D21" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="E21" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="F21" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="G21" s="39" t="s">
         <v>89</v>
-      </c>
-      <c r="G21" s="39" t="s">
-        <v>90</v>
       </c>
       <c r="H21" s="39" t="s">
         <v>42</v>
       </c>
       <c r="I21" s="39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J21" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K21" s="18"/>
     </row>
@@ -2455,7 +2455,7 @@
     </row>
     <row r="24" spans="1:11" s="24" customFormat="1" ht="14.25" customHeight="1">
       <c r="B24" s="73" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C24" s="74"/>
       <c r="D24" s="74"/>

--- a/chiloPro/template-series_english/structure-books.xlsx
+++ b/chiloPro/template-series_english/structure-books.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="111">
   <si>
     <t>output-path</t>
     <phoneticPr fontId="1"/>
@@ -110,14 +110,6 @@
   </si>
   <si>
     <t>google-analytics-id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fb-app-id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>og:site_name</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -214,10 +206,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>vol</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>series-title</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -473,9 +461,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>page-type（required）</t>
-  </si>
-  <si>
     <t>section（required after B2）</t>
   </si>
   <si>
@@ -513,10 +498,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>temp_cover_image.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve"> Youtube ID of the explanation video 
 ─────
 When delivering the explanation videos of Web CHiLO Book from Youtube, enter the video ID included in the registered Youtube video URL.
@@ -526,6 +507,95 @@
   </si>
   <si>
     <t>（Required）Issued date of first edition</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>riviced</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>改定日</t>
+    <rPh sb="0" eb="3">
+      <t>カイテイビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>deploy-url</t>
+  </si>
+  <si>
+    <t>Web CHiLO BookのOGPに指定するURL</t>
+    <rPh sb="19" eb="21">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Web CHiLO BookをアップロードするURLの、/vol-x-html/より前の部分を記入します。</t>
+    <rPh sb="42" eb="43">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fb-app-id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>og:site_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（必須）CHiLO BookのユニークID。
+──────────────────
+epub3パッケージドキュメント（拡張子がopfのドキュメント）のunique-identierに設定されます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>page-type（required）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>identifier（required）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vol（required）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>over</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表紙画像
+―――――――――――――
+表紙画像のファイル名（表紙画像が無い場合は空白にしてください）</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガゾウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -536,7 +606,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -616,14 +686,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -664,7 +726,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -695,8 +757,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -964,6 +1032,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1099,7 +1191,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1111,10 +1203,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1145,13 +1233,13 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1159,7 +1247,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1185,7 +1273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1">
@@ -1200,25 +1288,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1227,137 +1300,172 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="37" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="37" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1682,7 +1790,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
@@ -1691,269 +1799,291 @@
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.5" customWidth="1"/>
     <col min="3" max="3" width="46.25" customWidth="1"/>
-    <col min="4" max="4" width="75.875" customWidth="1"/>
+    <col min="4" max="4" width="86.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="48.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25">
+    <row r="1" spans="1:4" ht="14.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="28.5" hidden="1">
+      <c r="C1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.5" hidden="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="42.75" hidden="1">
+      <c r="C2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="42.75" hidden="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.5">
+      <c r="C3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.5">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="28.5">
+      <c r="C4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="37.5" customHeight="1">
+      <c r="C5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="37.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="28.5">
+      <c r="C6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1">
+      <c r="C7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.25">
+      <c r="C8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="61"/>
-    </row>
-    <row r="10" spans="1:5" ht="14.25">
+      <c r="C9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="59"/>
+    </row>
+    <row r="10" spans="1:4" ht="14.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="61"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B10" s="39"/>
+      <c r="C10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="59"/>
+    </row>
+    <row r="11" spans="1:4" ht="14.25">
       <c r="A11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="59"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="6" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="60"/>
+    </row>
+    <row r="13" spans="1:4" ht="85.5">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.25">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="62"/>
-    </row>
-    <row r="12" spans="1:5" ht="99.75">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="7" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="28.5">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.25">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="7" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="14.25">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="28.5">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.25">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.25">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="63" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.25">
       <c r="A17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="63"/>
+        <v>100</v>
+      </c>
+      <c r="B17" s="41"/>
+      <c r="C17" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="61" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="14.25">
       <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="61"/>
+    </row>
+    <row r="19" spans="1:5" ht="14.25">
+      <c r="A19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="59"/>
+      <c r="E19" s="61"/>
+    </row>
+    <row r="20" spans="1:5" ht="14.25">
+      <c r="A20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="60"/>
+      <c r="E20" s="61"/>
+    </row>
+    <row r="21" spans="1:5" ht="14.25">
+      <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="62"/>
-      <c r="E18" s="63"/>
-    </row>
-    <row r="19" spans="1:5" ht="28.5">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="63"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="53"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="54"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="56"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="61"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="54"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="56"/>
+      <c r="A23" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="57"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="59"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="54"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="52"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="55"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="57"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
-    <mergeCell ref="A21:C24"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="A23:C26"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E17:E21"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1968,140 +2098,162 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="56.125" customWidth="1"/>
-    <col min="3" max="3" width="39.375" customWidth="1"/>
-    <col min="4" max="4" width="38.25" customWidth="1"/>
-    <col min="5" max="5" width="37.875" customWidth="1"/>
+    <col min="1" max="1" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="56.125" customWidth="1"/>
+    <col min="4" max="4" width="39.375" customWidth="1"/>
+    <col min="5" max="5" width="32.75" style="8" customWidth="1"/>
+    <col min="6" max="6" width="38.25" customWidth="1"/>
+    <col min="7" max="7" width="37.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" ht="15" thickBot="1">
+      <c r="A1" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="37.5" customHeight="1" thickTop="1">
-      <c r="A2" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-    </row>
-    <row r="3" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-    </row>
-    <row r="4" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-    </row>
-    <row r="5" spans="1:5" s="9" customFormat="1" ht="114">
-      <c r="A5" s="35" t="s">
+      <c r="G1" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="37.5" customHeight="1" thickTop="1">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="80"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+    </row>
+    <row r="3" spans="1:7" ht="37.5" customHeight="1">
+      <c r="A3" s="44"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+    </row>
+    <row r="4" spans="1:7" ht="37.5" customHeight="1">
+      <c r="A4" s="44"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+    </row>
+    <row r="5" spans="1:7" s="8" customFormat="1" ht="114">
+      <c r="A5" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="G5" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="9" customFormat="1" ht="28.5">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="37" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="24"/>
-      <c r="B9" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="24"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="24"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="24"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="24"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="24"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="24"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="24"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="24"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="24"/>
+    </row>
+    <row r="6" spans="1:7" s="8" customFormat="1" ht="28.5">
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+    </row>
+    <row r="8" spans="1:7" ht="13.5">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" spans="1:7" ht="13.5" customHeight="1">
+      <c r="B9" s="23"/>
+      <c r="C9" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="63"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="23"/>
+    </row>
+    <row r="10" spans="1:7" ht="13.5" customHeight="1">
+      <c r="B10" s="23"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="1:7" ht="13.5" customHeight="1">
+      <c r="B11" s="23"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="23"/>
+    </row>
+    <row r="12" spans="1:7" ht="13.5" customHeight="1">
+      <c r="B12" s="23"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="23"/>
+    </row>
+    <row r="13" spans="1:7" ht="13.5" customHeight="1">
+      <c r="B13" s="23"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="23"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="1">
-    <mergeCell ref="B9:D13"/>
+    <mergeCell ref="C9:E13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2116,9 +2268,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
@@ -2131,383 +2285,366 @@
     <col min="8" max="8" width="27.75" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="31.25" customWidth="1"/>
     <col min="10" max="10" width="15.625" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="16"/>
+    <col min="11" max="11" width="8.875" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickTop="1">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="16"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="17"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="18"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="19"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="19"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="1:11" s="23" customFormat="1">
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="24" customFormat="1" ht="189">
+      <c r="A20" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="13" t="s">
+      <c r="C20" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="34" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" thickTop="1">
-      <c r="A2" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="14"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="15"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="15"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="17"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="18"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="19"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="20"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="20"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-    </row>
-    <row r="20" spans="1:11" s="24" customFormat="1">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="25" customFormat="1" ht="189">
-      <c r="A21" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" s="39" t="s">
+      <c r="J20" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="H21" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="J21" s="39" t="s">
+      <c r="K20" s="17"/>
+    </row>
+    <row r="21" spans="1:11" s="36" customFormat="1">
+      <c r="D21" s="37"/>
+      <c r="K21" s="38"/>
+    </row>
+    <row r="22" spans="1:11" s="36" customFormat="1">
+      <c r="D22" s="37"/>
+      <c r="K22" s="38"/>
+    </row>
+    <row r="23" spans="1:11" s="23" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B23" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="K21" s="18"/>
-    </row>
-    <row r="22" spans="1:11" s="41" customFormat="1">
-      <c r="D22" s="42"/>
-      <c r="K22" s="43"/>
-    </row>
-    <row r="23" spans="1:11" s="41" customFormat="1">
-      <c r="D23" s="42"/>
-      <c r="K23" s="43"/>
-    </row>
-    <row r="24" spans="1:11" s="24" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B24" s="73" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="75"/>
-      <c r="K24" s="14"/>
-    </row>
-    <row r="25" spans="1:11" s="24" customFormat="1">
-      <c r="B25" s="76"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="78"/>
-      <c r="K25" s="14"/>
-    </row>
-    <row r="26" spans="1:11" s="24" customFormat="1">
-      <c r="B26" s="76"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="78"/>
-      <c r="K26" s="14"/>
-    </row>
-    <row r="27" spans="1:11" s="24" customFormat="1">
-      <c r="B27" s="76"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="78"/>
-      <c r="K27" s="14"/>
-    </row>
-    <row r="28" spans="1:11" s="24" customFormat="1">
-      <c r="B28" s="76"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="78"/>
-      <c r="K28" s="14"/>
-    </row>
-    <row r="29" spans="1:11" s="24" customFormat="1">
-      <c r="B29" s="76"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="78"/>
-      <c r="K29" s="14"/>
-    </row>
-    <row r="30" spans="1:11" s="24" customFormat="1">
-      <c r="B30" s="79"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="81"/>
-      <c r="K30" s="14"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="73"/>
+      <c r="K23" s="13"/>
+    </row>
+    <row r="24" spans="1:11" s="23" customFormat="1">
+      <c r="B24" s="74"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="76"/>
+      <c r="K24" s="13"/>
+    </row>
+    <row r="25" spans="1:11" s="23" customFormat="1">
+      <c r="B25" s="74"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="76"/>
+      <c r="K25" s="13"/>
+    </row>
+    <row r="26" spans="1:11" s="23" customFormat="1">
+      <c r="B26" s="74"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="76"/>
+      <c r="K26" s="13"/>
+    </row>
+    <row r="27" spans="1:11" s="23" customFormat="1">
+      <c r="B27" s="74"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="76"/>
+      <c r="K27" s="13"/>
+    </row>
+    <row r="28" spans="1:11" s="23" customFormat="1">
+      <c r="B28" s="74"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="76"/>
+      <c r="K28" s="13"/>
+    </row>
+    <row r="29" spans="1:11" s="23" customFormat="1">
+      <c r="B29" s="77"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="79"/>
+      <c r="K29" s="13"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="1">
-    <mergeCell ref="B24:E30"/>
+    <mergeCell ref="B23:E29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2519,19 +2656,19 @@
           <x14:formula1>
             <xm:f>MetaSheet!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A19</xm:sqref>
+          <xm:sqref>A2:A18</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>MetaSheet!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D19</xm:sqref>
+          <xm:sqref>D2:D18</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>MetaSheet!$C$2:$C$8</xm:f>
           </x14:formula1>
-          <xm:sqref>J3:J19</xm:sqref>
+          <xm:sqref>J2:J18</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2556,68 +2693,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" thickBot="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="26" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="14.25" thickTop="1">
+      <c r="A2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.25" thickTop="1">
-      <c r="A2" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="28" t="b">
+      <c r="B2" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29" t="s">
-        <v>48</v>
-      </c>
-    </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/chiloPro/template-series_english/structure-books.xlsx
+++ b/chiloPro/template-series_english/structure-books.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="26100" windowHeight="16260" tabRatio="827"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13065" windowHeight="7200" tabRatio="827"/>
   </bookViews>
   <sheets>
     <sheet name="series-information" sheetId="1" r:id="rId1"/>
@@ -510,40 +510,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>riviced</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>改定日</t>
-    <rPh sb="0" eb="3">
-      <t>カイテイビ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>deploy-url</t>
   </si>
   <si>
-    <t>Web CHiLO BookのOGPに指定するURL</t>
-    <rPh sb="19" eb="21">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Web CHiLO BookをアップロードするURLの、/vol-x-html/より前の部分を記入します。</t>
-    <rPh sb="42" eb="43">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>キニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>fb-app-id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -552,17 +521,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>（必須）CHiLO BookのユニークID。
-──────────────────
-epub3パッケージドキュメント（拡張子がopfのドキュメント）のunique-identierに設定されます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>page-type（required）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>identifier（required）</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -587,16 +546,36 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>表紙画像
+    <t>rivised</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Specified URL in OGP of Web CHiLO Book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cover Image
 ―――――――――――――
-表紙画像のファイル名（表紙画像が無い場合は空白にしてください）</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウシ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+Name of file with cover image (leave blank when there is no cover image).</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>identifier</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unique ID of CHiLO Book
+──────────────────
+It will be configured as unique-identifier of epub3 pakage document (an opf extension document).</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Date of revision</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>To upload Web CHiLO Book, enter the part before "/vol-x-html/"of the URL.</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -726,7 +705,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -754,12 +733,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1191,7 +1164,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1216,9 +1189,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1330,12 +1300,6 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1351,102 +1315,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1465,6 +1333,111 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1901,7 +1874,7 @@
       <c r="C8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="59" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1913,27 +1886,27 @@
       <c r="C9" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="59"/>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="1:4" ht="14.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="39"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="59"/>
+      <c r="D10" s="60"/>
     </row>
     <row r="11" spans="1:4" ht="14.25">
       <c r="A11" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="59"/>
+        <v>104</v>
+      </c>
+      <c r="B11" s="39"/>
+      <c r="C11" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="60"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
@@ -1943,7 +1916,7 @@
       <c r="C12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="60"/>
+      <c r="D12" s="61"/>
     </row>
     <row r="13" spans="1:4" ht="85.5">
       <c r="A13" s="1" t="s">
@@ -1995,16 +1968,16 @@
     </row>
     <row r="17" spans="1:5" ht="14.25">
       <c r="A17" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="40"/>
+      <c r="C17" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="62" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2016,32 +1989,32 @@
       <c r="C18" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="61"/>
+      <c r="E18" s="62"/>
     </row>
     <row r="19" spans="1:5" ht="14.25">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="59"/>
-      <c r="E19" s="61"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="62"/>
     </row>
     <row r="20" spans="1:5" ht="14.25">
       <c r="A20" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="60"/>
-      <c r="E20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="62"/>
     </row>
     <row r="21" spans="1:5" ht="14.25">
       <c r="A21" s="1" t="s">
@@ -2054,29 +2027,29 @@
       <c r="D21" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="61"/>
+      <c r="E21" s="62"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="52"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="52"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="54"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="55"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="52"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="54"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="55"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="55"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="57"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2104,156 +2077,156 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="46.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="56.125" customWidth="1"/>
-    <col min="4" max="4" width="39.375" customWidth="1"/>
-    <col min="5" max="5" width="32.75" style="8" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="56.125" customWidth="1"/>
+    <col min="3" max="3" width="39.375" customWidth="1"/>
+    <col min="4" max="4" width="32.75" style="7" customWidth="1"/>
+    <col min="5" max="5" width="46.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.25" customWidth="1"/>
     <col min="7" max="7" width="37.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" s="83" customFormat="1" ht="15" thickBot="1">
+      <c r="A1" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="F1" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="82" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="83" customFormat="1" ht="37.5" customHeight="1" thickTop="1">
+      <c r="A2" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+    </row>
+    <row r="3" spans="1:7" s="83" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A3" s="48"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+    </row>
+    <row r="4" spans="1:7" s="83" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A4" s="48"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+    </row>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="114">
+      <c r="A5" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="37.5" customHeight="1" thickTop="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-    </row>
-    <row r="3" spans="1:7" ht="37.5" customHeight="1">
-      <c r="A3" s="44"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-    </row>
-    <row r="4" spans="1:7" ht="37.5" customHeight="1">
-      <c r="A4" s="44"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-    </row>
-    <row r="5" spans="1:7" s="8" customFormat="1" ht="114">
-      <c r="A5" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="29" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="8" customFormat="1" ht="28.5">
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="32" t="s">
+    <row r="6" spans="1:7" s="7" customFormat="1" ht="28.5">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="44"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" ht="13.5">
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B9" s="23"/>
-      <c r="C9" s="62" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="23"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="65"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B10" s="23"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="23"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="68"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B11" s="23"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="23"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B12" s="23"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="23"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B13" s="23"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="23"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="71"/>
+      <c r="F13" s="22"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="1">
-    <mergeCell ref="C9:E13"/>
+    <mergeCell ref="B9:D13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2271,7 +2244,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2285,364 +2258,364 @@
     <col min="8" max="8" width="27.75" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="31.25" customWidth="1"/>
     <col min="10" max="10" width="15.625" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="15"/>
+    <col min="11" max="11" width="8.875" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1">
-      <c r="A1" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickTop="1">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="14"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="14"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="16"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="17"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="16"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="18"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="17"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="19"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="19"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="18"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-    </row>
-    <row r="19" spans="1:11" s="23" customFormat="1">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="16" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:11" s="22" customFormat="1">
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="24" customFormat="1" ht="189">
-      <c r="A20" s="33" t="s">
+    <row r="20" spans="1:11" s="23" customFormat="1" ht="189">
+      <c r="A20" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="F20" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="G20" s="34" t="s">
+      <c r="G20" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="H20" s="34" t="s">
+      <c r="H20" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="34" t="s">
+      <c r="I20" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="J20" s="34" t="s">
+      <c r="J20" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="K20" s="17"/>
-    </row>
-    <row r="21" spans="1:11" s="36" customFormat="1">
-      <c r="D21" s="37"/>
-      <c r="K21" s="38"/>
-    </row>
-    <row r="22" spans="1:11" s="36" customFormat="1">
-      <c r="D22" s="37"/>
-      <c r="K22" s="38"/>
-    </row>
-    <row r="23" spans="1:11" s="23" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B23" s="71" t="s">
+      <c r="K20" s="16"/>
+    </row>
+    <row r="21" spans="1:11" s="35" customFormat="1">
+      <c r="D21" s="36"/>
+      <c r="K21" s="37"/>
+    </row>
+    <row r="22" spans="1:11" s="35" customFormat="1">
+      <c r="D22" s="36"/>
+      <c r="K22" s="37"/>
+    </row>
+    <row r="23" spans="1:11" s="22" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B23" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="73"/>
-      <c r="K23" s="13"/>
-    </row>
-    <row r="24" spans="1:11" s="23" customFormat="1">
-      <c r="B24" s="74"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="76"/>
-      <c r="K24" s="13"/>
-    </row>
-    <row r="25" spans="1:11" s="23" customFormat="1">
-      <c r="B25" s="74"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="76"/>
-      <c r="K25" s="13"/>
-    </row>
-    <row r="26" spans="1:11" s="23" customFormat="1">
-      <c r="B26" s="74"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="76"/>
-      <c r="K26" s="13"/>
-    </row>
-    <row r="27" spans="1:11" s="23" customFormat="1">
-      <c r="B27" s="74"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="76"/>
-      <c r="K27" s="13"/>
-    </row>
-    <row r="28" spans="1:11" s="23" customFormat="1">
-      <c r="B28" s="74"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="76"/>
-      <c r="K28" s="13"/>
-    </row>
-    <row r="29" spans="1:11" s="23" customFormat="1">
-      <c r="B29" s="77"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="79"/>
-      <c r="K29" s="13"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="74"/>
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" spans="1:11" s="22" customFormat="1">
+      <c r="B24" s="75"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="77"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="1:11" s="22" customFormat="1">
+      <c r="B25" s="75"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="77"/>
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" spans="1:11" s="22" customFormat="1">
+      <c r="B26" s="75"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="77"/>
+      <c r="K26" s="12"/>
+    </row>
+    <row r="27" spans="1:11" s="22" customFormat="1">
+      <c r="B27" s="75"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="77"/>
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="1:11" s="22" customFormat="1">
+      <c r="B28" s="75"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="77"/>
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" spans="1:11" s="22" customFormat="1">
+      <c r="B29" s="78"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="80"/>
+      <c r="K29" s="12"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="1">
     <mergeCell ref="B23:E29"/>
   </mergeCells>
@@ -2693,68 +2666,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" thickBot="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25" thickTop="1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="27" t="b">
+      <c r="B2" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/chiloPro/template-series_english/structure-books.xlsx
+++ b/chiloPro/template-series_english/structure-books.xlsx
@@ -564,18 +564,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Date of revision</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>To upload Web CHiLO Book, enter the part before "/vol-x-html/"of the URL.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>Unique ID of CHiLO Book
 ──────────────────
-It will be configured as unique-identifier of epub3 pakage document (an opf extension document).</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Date of revision</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>To upload Web CHiLO Book, enter the part before "/vol-x-html/"of the URL.</t>
-    <phoneticPr fontId="2"/>
+It will be configured as identifier of epub3 pakage document (an opf format document).</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1335,6 +1335,18 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1427,18 +1439,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1874,7 +1874,7 @@
       <c r="C8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="62" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1886,7 +1886,7 @@
       <c r="C9" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="60"/>
+      <c r="D9" s="63"/>
     </row>
     <row r="10" spans="1:4" ht="14.25">
       <c r="A10" s="1" t="s">
@@ -1896,7 +1896,7 @@
       <c r="C10" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="60"/>
+      <c r="D10" s="63"/>
     </row>
     <row r="11" spans="1:4" ht="14.25">
       <c r="A11" s="1" t="s">
@@ -1904,9 +1904,9 @@
       </c>
       <c r="B11" s="39"/>
       <c r="C11" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="60"/>
+        <v>108</v>
+      </c>
+      <c r="D11" s="63"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
@@ -1916,7 +1916,7 @@
       <c r="C12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="61"/>
+      <c r="D12" s="64"/>
     </row>
     <row r="13" spans="1:4" ht="85.5">
       <c r="A13" s="1" t="s">
@@ -1975,9 +1975,9 @@
         <v>105</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E17" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="65" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1989,10 +1989,10 @@
       <c r="C18" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="62"/>
+      <c r="E18" s="65"/>
     </row>
     <row r="19" spans="1:5" ht="14.25">
       <c r="A19" s="1" t="s">
@@ -2002,8 +2002,8 @@
       <c r="C19" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="60"/>
-      <c r="E19" s="62"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="65"/>
     </row>
     <row r="20" spans="1:5" ht="14.25">
       <c r="A20" s="1" t="s">
@@ -2013,8 +2013,8 @@
       <c r="C20" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="62"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="65"/>
     </row>
     <row r="21" spans="1:5" ht="14.25">
       <c r="A21" s="1" t="s">
@@ -2027,31 +2027,32 @@
       <c r="D21" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="62"/>
+      <c r="E21" s="65"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="52"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="55"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="53"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="55"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="58"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="53"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="55"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="58"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="56"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="58"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="61"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="A23:C26"/>
     <mergeCell ref="D8:D12"/>
@@ -2086,55 +2087,55 @@
     <col min="7" max="7" width="37.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="83" customFormat="1" ht="15" thickBot="1">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:7" s="52" customFormat="1" ht="15" thickBot="1">
+      <c r="A1" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="82" t="s">
+      <c r="D1" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="F1" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="82" t="s">
+      <c r="G1" s="51" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="83" customFormat="1" ht="37.5" customHeight="1" thickTop="1">
+    <row r="2" spans="1:7" s="52" customFormat="1" ht="37.5" customHeight="1" thickTop="1">
       <c r="A2" s="41" t="s">
         <v>95</v>
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="46"/>
       <c r="D2" s="42"/>
-      <c r="E2" s="81"/>
+      <c r="E2" s="50"/>
       <c r="F2" s="47"/>
       <c r="G2" s="47"/>
     </row>
-    <row r="3" spans="1:7" s="83" customFormat="1" ht="37.5" customHeight="1">
+    <row r="3" spans="1:7" s="52" customFormat="1" ht="37.5" customHeight="1">
       <c r="A3" s="48"/>
       <c r="B3" s="43"/>
       <c r="C3" s="49"/>
       <c r="D3" s="43"/>
-      <c r="E3" s="81"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="47"/>
       <c r="G3" s="47"/>
     </row>
-    <row r="4" spans="1:7" s="83" customFormat="1" ht="37.5" customHeight="1">
+    <row r="4" spans="1:7" s="52" customFormat="1" ht="37.5" customHeight="1">
       <c r="A4" s="48"/>
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
       <c r="D4" s="43"/>
-      <c r="E4" s="81"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="43"/>
       <c r="G4" s="43"/>
     </row>
@@ -2152,7 +2153,7 @@
         <v>106</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>79</v>
@@ -2188,39 +2189,39 @@
     </row>
     <row r="9" spans="1:7" ht="13.5" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="65"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="68"/>
       <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:7" ht="13.5" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="68"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="71"/>
       <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="68"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="71"/>
       <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="68"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="71"/>
       <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:7" ht="13.5" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="71"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="74"/>
       <c r="F13" s="22"/>
     </row>
   </sheetData>
@@ -2564,54 +2565,54 @@
       <c r="K22" s="37"/>
     </row>
     <row r="23" spans="1:11" s="22" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="74"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="77"/>
       <c r="K23" s="12"/>
     </row>
     <row r="24" spans="1:11" s="22" customFormat="1">
-      <c r="B24" s="75"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="77"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="80"/>
       <c r="K24" s="12"/>
     </row>
     <row r="25" spans="1:11" s="22" customFormat="1">
-      <c r="B25" s="75"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="77"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="80"/>
       <c r="K25" s="12"/>
     </row>
     <row r="26" spans="1:11" s="22" customFormat="1">
-      <c r="B26" s="75"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="77"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="80"/>
       <c r="K26" s="12"/>
     </row>
     <row r="27" spans="1:11" s="22" customFormat="1">
-      <c r="B27" s="75"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="77"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="80"/>
       <c r="K27" s="12"/>
     </row>
     <row r="28" spans="1:11" s="22" customFormat="1">
-      <c r="B28" s="75"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="77"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="80"/>
       <c r="K28" s="12"/>
     </row>
     <row r="29" spans="1:11" s="22" customFormat="1">
-      <c r="B29" s="78"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="80"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="83"/>
       <c r="K29" s="12"/>
     </row>
   </sheetData>

--- a/chiloPro/template-series_english/structure-books.xlsx
+++ b/chiloPro/template-series_english/structure-books.xlsx
@@ -23,7 +23,7 @@
     <definedName name="text">#REF!</definedName>
     <definedName name="type">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,15 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="111">
-  <si>
-    <t>output-path</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>input-path</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
   <si>
     <t>version</t>
     <phoneticPr fontId="1"/>
@@ -66,21 +58,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>./</t>
-  </si>
-  <si>
-    <t>./</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>identifier</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>output-name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>series-name</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -155,55 +136,6 @@
   <si>
     <t>test</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「必要な素材」が保存されているフォルダが、構造ファイル（structure-books.xlsx）と同じ場所に保存されている場合は、記載する必要はありません。</t>
-  </si>
-  <si>
-    <t>common/やvol-n/ などの「必要な素材」の保存場所</t>
-    <rPh sb="28" eb="30">
-      <t>バショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OutputBase/以下のCHiLO Bookの出力フォルダ</t>
-    <rPh sb="11" eb="13">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>特に記載する必要はありません。
-ここにフォルダ名を記載すると、OutputBase/に、記載したフォルダ名でフォルダが作成され、そこにCHiLO Bookが出力されます。</t>
-    <rPh sb="0" eb="1">
-      <t>トク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>series-title</t>
@@ -263,15 +195,6 @@
   <si>
     <t>The version information entered here will not be used in the output CHiLO Book.</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Prefix of the file name of the output CHiLO Book</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The prefix letter of the file name of the output CHiLO Book will be added.
-When left blank, the prefix "null" will be added.</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>（Required）Unique ID of CHiLO Book.</t>
@@ -1763,9 +1686,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
@@ -1776,288 +1701,248 @@
     <col min="5" max="5" width="48.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25">
+    <row r="1" spans="1:5" ht="14.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="37.5" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="6" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="14.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="28.5" hidden="1">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="42.75" hidden="1">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="D6" s="63"/>
+    </row>
+    <row r="7" spans="1:5" ht="14.25">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.5">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="14.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+        <v>86</v>
+      </c>
+      <c r="D7" s="63"/>
+    </row>
+    <row r="8" spans="1:5" ht="14.25">
       <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="B8" s="39"/>
       <c r="C8" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="62" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="14.25">
+        <v>97</v>
+      </c>
+      <c r="D8" s="63"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="63"/>
-    </row>
-    <row r="10" spans="1:4" ht="14.25">
+        <v>49</v>
+      </c>
+      <c r="D9" s="64"/>
+    </row>
+    <row r="10" spans="1:5" ht="85.5">
       <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="38"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="3"/>
       <c r="C10" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="63"/>
-    </row>
-    <row r="11" spans="1:4" ht="14.25">
+        <v>50</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.25">
       <c r="A11" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="39"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="63"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+        <v>52</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="28.5">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="64"/>
-    </row>
-    <row r="13" spans="1:4" ht="85.5">
+        <v>54</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="14.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.25">
       <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="B14" s="40"/>
       <c r="C14" s="5" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="28.5">
+    <row r="15" spans="1:5" ht="14.25">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="14.25">
+        <v>58</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="65"/>
+    </row>
+    <row r="16" spans="1:5" ht="14.25">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>68</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D16" s="63"/>
+      <c r="E16" s="65"/>
     </row>
     <row r="17" spans="1:5" ht="14.25">
       <c r="A17" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="40"/>
+        <v>89</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" s="65" t="s">
-        <v>75</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D17" s="64"/>
+      <c r="E17" s="65"/>
     </row>
     <row r="18" spans="1:5" ht="14.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="62" t="s">
-        <v>70</v>
+        <v>62</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="E18" s="65"/>
     </row>
-    <row r="19" spans="1:5" ht="14.25">
-      <c r="A19" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="65"/>
-    </row>
-    <row r="20" spans="1:5" ht="14.25">
-      <c r="A20" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="64"/>
-      <c r="E20" s="65"/>
-    </row>
-    <row r="21" spans="1:5" ht="14.25">
-      <c r="A21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="65"/>
+    <row r="20" spans="1:5">
+      <c r="A20" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="56"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="58"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="56"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="58"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="55"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="56"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="58"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="56"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="58"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="59"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="61"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="61"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
-    <mergeCell ref="A23:C26"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="A20:C23"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E14:E18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2089,30 +1974,30 @@
   <sheetData>
     <row r="1" spans="1:7" s="52" customFormat="1" ht="15" thickBot="1">
       <c r="A1" s="51" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C1" s="51" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F1" s="51" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G1" s="51" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="52" customFormat="1" ht="37.5" customHeight="1" thickTop="1">
       <c r="A2" s="41" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="46"/>
@@ -2141,25 +2026,25 @@
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="114">
       <c r="A5" s="29" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="28.5">
@@ -2168,7 +2053,7 @@
       <c r="C6" s="30"/>
       <c r="F6" s="30"/>
       <c r="G6" s="31" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2190,7 +2075,7 @@
     <row r="9" spans="1:7" ht="13.5" customHeight="1">
       <c r="A9" s="22"/>
       <c r="B9" s="66" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C9" s="67"/>
       <c r="D9" s="68"/>
@@ -2264,37 +2149,37 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1">
       <c r="A1" s="24" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="24" t="s">
+      <c r="J1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>30</v>
-      </c>
       <c r="K1" s="11" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickTop="1">
@@ -2520,39 +2405,39 @@
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
       <c r="K19" s="15" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="23" customFormat="1" ht="189">
       <c r="A20" s="32" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F20" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="G20" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="H20" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" s="33" t="s">
-        <v>96</v>
-      </c>
       <c r="J20" s="33" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K20" s="16"/>
     </row>
@@ -2566,7 +2451,7 @@
     </row>
     <row r="23" spans="1:11" s="22" customFormat="1" ht="14.25" customHeight="1">
       <c r="B23" s="75" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C23" s="76"/>
       <c r="D23" s="76"/>
@@ -2668,61 +2553,61 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" thickBot="1">
       <c r="A1" s="24" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25" thickTop="1">
       <c r="A2" s="25" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B2" s="26" t="b">
         <v>1</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="27" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="27"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="27"/>
       <c r="B5" s="27"/>
       <c r="C5" s="27" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="27"/>
       <c r="B6" s="27"/>
       <c r="C6" s="27" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="27"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">

--- a/chiloPro/template-series_english/structure-books.xlsx
+++ b/chiloPro/template-series_english/structure-books.xlsx
@@ -469,10 +469,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>rivised</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Specified URL in OGP of Web CHiLO Book</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -499,6 +495,10 @@
 ──────────────────
 It will be configured as identifier of epub3 pakage document (an opf format document).</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>revised</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1688,9 +1688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
@@ -1785,11 +1783,11 @@
     </row>
     <row r="8" spans="1:5" ht="14.25">
       <c r="A8" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" s="63"/>
     </row>
@@ -1857,10 +1855,10 @@
       </c>
       <c r="B14" s="40"/>
       <c r="C14" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E14" s="65" t="s">
         <v>64</v>
@@ -1986,7 +1984,7 @@
         <v>92</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F1" s="51" t="s">
         <v>29</v>
@@ -2035,10 +2033,10 @@
         <v>67</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>68</v>

--- a/chiloPro/template-series_english/structure-books.xlsx
+++ b/chiloPro/template-series_english/structure-books.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13065" windowHeight="7200" tabRatio="827"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13065" windowHeight="7200" tabRatio="827" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="series-information" sheetId="1" r:id="rId1"/>
@@ -113,9 +113,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>page</t>
-  </si>
-  <si>
     <t>main</t>
   </si>
   <si>
@@ -346,12 +343,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Page title
-───────
-When page-type is the test, no need to enter.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Display CHiLO Community
 ──────────
 Choose "TRUE" to display link button for entering CHiLO Community.Fill in only when you want tp display the community-url.</t>
@@ -384,9 +375,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>section（required after B2）</t>
-  </si>
-  <si>
     <t>community</t>
   </si>
   <si>
@@ -395,11 +383,6 @@
 ・A book structure sheet is necessary for each book. Copy and fill out one sheet for each Book. 
 ・ Conform the sheet name to the "vol" column of the book-list.
 ・The cells  not allowed to be modified, are protected. There are no passwords for its cancellation.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Section Title
-────────</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -499,6 +482,22 @@
   <si>
     <t>revised</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>chapter（required after B2）</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>Chapter title
+────────</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Section title
+───────
+When page-type is the test, no need to enter.</t>
   </si>
 </sst>
 </file>
@@ -1688,7 +1687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
@@ -1707,10 +1706,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25">
@@ -1719,10 +1718,10 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="37.5" customHeight="1">
@@ -1731,10 +1730,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
@@ -1743,10 +1742,10 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
@@ -1755,10 +1754,10 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="62" t="s">
         <v>46</v>
-      </c>
-      <c r="D5" s="62" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25">
@@ -1767,7 +1766,7 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="63"/>
     </row>
@@ -1777,17 +1776,17 @@
       </c>
       <c r="B7" s="38"/>
       <c r="C7" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D7" s="63"/>
     </row>
     <row r="8" spans="1:5" ht="14.25">
       <c r="A8" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D8" s="63"/>
     </row>
@@ -1797,7 +1796,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" s="64"/>
     </row>
@@ -1807,10 +1806,10 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25">
@@ -1819,10 +1818,10 @@
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="28.5">
@@ -1831,10 +1830,10 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25">
@@ -1843,25 +1842,25 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B14" s="40"/>
       <c r="C14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="E14" s="65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.25">
@@ -1870,31 +1869,31 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="62" t="s">
         <v>58</v>
-      </c>
-      <c r="D15" s="62" t="s">
-        <v>59</v>
       </c>
       <c r="E15" s="65"/>
     </row>
     <row r="16" spans="1:5" ht="14.25">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="63"/>
       <c r="E16" s="65"/>
     </row>
     <row r="17" spans="1:5" ht="14.25">
       <c r="A17" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="64"/>
       <c r="E17" s="65"/>
@@ -1905,16 +1904,16 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="E18" s="65"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="54"/>
       <c r="C20" s="55"/>
@@ -1972,22 +1971,22 @@
   <sheetData>
     <row r="1" spans="1:7" s="52" customFormat="1" ht="15" thickBot="1">
       <c r="A1" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="51" t="s">
+      <c r="F1" s="51" t="s">
         <v>28</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" s="51" t="s">
-        <v>29</v>
       </c>
       <c r="G1" s="51" t="s">
         <v>14</v>
@@ -1995,7 +1994,7 @@
     </row>
     <row r="2" spans="1:7" s="52" customFormat="1" ht="37.5" customHeight="1" thickTop="1">
       <c r="A2" s="41" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="46"/>
@@ -2024,25 +2023,25 @@
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="114">
       <c r="A5" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="C5" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="D5" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" s="29" t="s">
+      <c r="G5" s="29" t="s">
         <v>68</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="28.5">
@@ -2051,7 +2050,7 @@
       <c r="C6" s="30"/>
       <c r="F6" s="30"/>
       <c r="G6" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2073,7 +2072,7 @@
     <row r="9" spans="1:7" ht="13.5" customHeight="1">
       <c r="A9" s="22"/>
       <c r="B9" s="66" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C9" s="67"/>
       <c r="D9" s="68"/>
@@ -2127,9 +2126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
@@ -2147,37 +2144,37 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1">
       <c r="A1" s="24" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B1" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>77</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickTop="1">
@@ -2403,39 +2400,39 @@
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
       <c r="K19" s="15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="23" customFormat="1" ht="189">
       <c r="A20" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="33" t="s">
+      <c r="E20" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="F20" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="G20" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="H20" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="J20" s="33" t="s">
         <v>74</v>
-      </c>
-      <c r="G20" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="H20" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="J20" s="33" t="s">
-        <v>76</v>
       </c>
       <c r="K20" s="16"/>
     </row>
@@ -2449,7 +2446,7 @@
     </row>
     <row r="23" spans="1:11" s="22" customFormat="1" ht="14.25" customHeight="1">
       <c r="B23" s="75" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C23" s="76"/>
       <c r="D23" s="76"/>
@@ -2568,44 +2565,44 @@
         <v>1</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="27"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="27"/>
       <c r="B5" s="27"/>
       <c r="C5" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="27"/>
       <c r="B6" s="27"/>
       <c r="C6" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="27"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3">

--- a/chiloPro/template-series_english/structure-books.xlsx
+++ b/chiloPro/template-series_english/structure-books.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13065" windowHeight="7200" tabRatio="827" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13065" windowHeight="7200" tabRatio="827"/>
   </bookViews>
   <sheets>
     <sheet name="series-information" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="text">#REF!</definedName>
     <definedName name="type">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
   <si>
     <t>version</t>
     <phoneticPr fontId="1"/>
@@ -55,10 +55,6 @@
   </si>
   <si>
     <t>language</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>identifier</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -191,14 +187,6 @@
   </si>
   <si>
     <t>The version information entered here will not be used in the output CHiLO Book.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（Required）Unique ID of CHiLO Book.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Configured in unique-identifier of the epub3 package document (document with extension opf). </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1685,9 +1673,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
@@ -1706,217 +1694,210 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.25">
+    </row>
+    <row r="2" spans="1:5" ht="37.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="37.5" customHeight="1">
+    </row>
+    <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="6" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1">
+    </row>
+    <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="62" t="s">
-        <v>46</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D5" s="63"/>
     </row>
     <row r="6" spans="1:5" ht="14.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="5" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D6" s="63"/>
     </row>
     <row r="7" spans="1:5" ht="14.25">
       <c r="A7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="63"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="64"/>
+    </row>
+    <row r="9" spans="1:5" ht="85.5">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.25">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="63"/>
-    </row>
-    <row r="8" spans="1:5" ht="14.25">
-      <c r="A8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="63"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="5" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="64"/>
-    </row>
-    <row r="10" spans="1:5" ht="85.5">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.25">
+    </row>
+    <row r="11" spans="1:5" ht="28.5">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="28.5">
+    </row>
+    <row r="12" spans="1:5" ht="14.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="B13" s="40"/>
       <c r="C13" s="5" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>56</v>
+        <v>90</v>
+      </c>
+      <c r="E13" s="65" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25">
       <c r="A14" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="40"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="2"/>
       <c r="C14" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="65" t="s">
-        <v>63</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="65"/>
     </row>
     <row r="15" spans="1:5" ht="14.25">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="62" t="s">
-        <v>58</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D15" s="63"/>
       <c r="E15" s="65"/>
     </row>
     <row r="16" spans="1:5" ht="14.25">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="63"/>
+        <v>57</v>
+      </c>
+      <c r="D16" s="64"/>
       <c r="E16" s="65"/>
     </row>
     <row r="17" spans="1:5" ht="14.25">
       <c r="A17" s="1" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="64"/>
+        <v>58</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="E17" s="65"/>
     </row>
-    <row r="18" spans="1:5" ht="14.25">
-      <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="65"/>
+    <row r="19" spans="1:5">
+      <c r="A19" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="54"/>
+      <c r="C19" s="55"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="55"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="58"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="56"/>
@@ -1924,22 +1905,17 @@
       <c r="C21" s="58"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="56"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="58"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="59"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="61"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="61"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
-    <mergeCell ref="A20:C23"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="A19:C22"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E13:E17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1971,30 +1947,30 @@
   <sheetData>
     <row r="1" spans="1:7" s="52" customFormat="1" ht="15" thickBot="1">
       <c r="A1" s="51" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="D1" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" s="51" t="s">
-        <v>28</v>
-      </c>
       <c r="G1" s="51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="52" customFormat="1" ht="37.5" customHeight="1" thickTop="1">
       <c r="A2" s="41" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="46"/>
@@ -2023,25 +1999,25 @@
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="114">
       <c r="A5" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="G5" s="29" t="s">
         <v>65</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="28.5">
@@ -2050,7 +2026,7 @@
       <c r="C6" s="30"/>
       <c r="F6" s="30"/>
       <c r="G6" s="31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2072,7 +2048,7 @@
     <row r="9" spans="1:7" ht="13.5" customHeight="1">
       <c r="A9" s="22"/>
       <c r="B9" s="66" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C9" s="67"/>
       <c r="D9" s="68"/>
@@ -2126,7 +2102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
@@ -2144,37 +2120,37 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1">
       <c r="A1" s="24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E1" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="G1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="J1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="24" t="s">
-        <v>24</v>
-      </c>
       <c r="K1" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickTop="1">
@@ -2400,39 +2376,39 @@
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
       <c r="K19" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="23" customFormat="1" ht="189">
       <c r="A20" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="34" t="s">
+      <c r="G20" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="H20" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="J20" s="33" t="s">
         <v>71</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="J20" s="33" t="s">
-        <v>74</v>
       </c>
       <c r="K20" s="16"/>
     </row>
@@ -2446,7 +2422,7 @@
     </row>
     <row r="23" spans="1:11" s="22" customFormat="1" ht="14.25" customHeight="1">
       <c r="B23" s="75" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C23" s="76"/>
       <c r="D23" s="76"/>
@@ -2548,61 +2524,61 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" thickBot="1">
       <c r="A1" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="C1" s="24" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25" thickTop="1">
       <c r="A2" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="26" t="b">
         <v>1</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="27"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="27"/>
       <c r="B5" s="27"/>
       <c r="C5" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="27"/>
       <c r="B6" s="27"/>
       <c r="C6" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="27"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">

--- a/chiloPro/template-series_english/structure-books.xlsx
+++ b/chiloPro/template-series_english/structure-books.xlsx
@@ -143,21 +143,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Javascriptのファイル名
-─────
-現在のバージョンでは対応しておりません。</t>
-    <rPh sb="15" eb="16">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CC by</t>
   </si>
   <si>
@@ -354,12 +339,6 @@
   <si>
     <t>File name of the explanation text
 ─────</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CCBY licence
-────────
-Unnecessary to enter when not CCBY. </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -486,6 +465,19 @@
     <t>Section title
 ───────
 When page-type is the test, no need to enter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCBY licence
+────────
+Unnecessary to enter when not CCBY. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>File name of Javascript
+─────
+Enter the file name of Javascript you want to embed in the page.
+※Not Standard CHiLO Book-capable.</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1694,10 +1686,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="37.5" customHeight="1">
@@ -1706,10 +1698,10 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
@@ -1718,10 +1710,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
@@ -1730,10 +1722,10 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="62" t="s">
         <v>42</v>
-      </c>
-      <c r="D4" s="62" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
@@ -1742,7 +1734,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="63"/>
     </row>
@@ -1752,17 +1744,17 @@
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D6" s="63"/>
     </row>
     <row r="7" spans="1:5" ht="14.25">
       <c r="A7" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B7" s="39"/>
       <c r="C7" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D7" s="63"/>
     </row>
@@ -1772,7 +1764,7 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="64"/>
     </row>
@@ -1782,10 +1774,10 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25">
@@ -1794,10 +1786,10 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="28.5">
@@ -1806,10 +1798,10 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25">
@@ -1818,25 +1810,25 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25">
       <c r="A13" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B13" s="40"/>
       <c r="C13" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25">
@@ -1845,31 +1837,31 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="62" t="s">
         <v>54</v>
-      </c>
-      <c r="D14" s="62" t="s">
-        <v>55</v>
       </c>
       <c r="E14" s="65"/>
     </row>
     <row r="15" spans="1:5" ht="14.25">
       <c r="A15" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="63"/>
       <c r="E15" s="65"/>
     </row>
     <row r="16" spans="1:5" ht="14.25">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" s="64"/>
       <c r="E16" s="65"/>
@@ -1880,16 +1872,16 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="E17" s="65"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="54"/>
       <c r="C19" s="55"/>
@@ -1947,7 +1939,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="52" customFormat="1" ht="15" thickBot="1">
       <c r="A1" s="51" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B1" s="51" t="s">
         <v>25</v>
@@ -1956,10 +1948,10 @@
         <v>26</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F1" s="51" t="s">
         <v>27</v>
@@ -1970,7 +1962,7 @@
     </row>
     <row r="2" spans="1:7" s="52" customFormat="1" ht="37.5" customHeight="1" thickTop="1">
       <c r="A2" s="41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="46"/>
@@ -1999,25 +1991,25 @@
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="114">
       <c r="A5" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="C5" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="D5" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="29" t="s">
+      <c r="G5" s="29" t="s">
         <v>64</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="28.5">
@@ -2026,7 +2018,7 @@
       <c r="C6" s="30"/>
       <c r="F6" s="30"/>
       <c r="G6" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2048,7 +2040,7 @@
     <row r="9" spans="1:7" ht="13.5" customHeight="1">
       <c r="A9" s="22"/>
       <c r="B9" s="66" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C9" s="67"/>
       <c r="D9" s="68"/>
@@ -2112,7 +2104,7 @@
     <col min="5" max="5" width="41.5" customWidth="1"/>
     <col min="6" max="6" width="27.125" customWidth="1"/>
     <col min="7" max="7" width="23.5" customWidth="1"/>
-    <col min="8" max="8" width="27.75" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="27.75" customWidth="1"/>
     <col min="9" max="9" width="31.25" customWidth="1"/>
     <col min="10" max="10" width="15.625" customWidth="1"/>
     <col min="11" max="11" width="8.875" style="14"/>
@@ -2120,16 +2112,16 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1">
       <c r="A1" s="24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E1" s="24" t="s">
         <v>18</v>
@@ -2150,7 +2142,7 @@
         <v>23</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickTop="1">
@@ -2376,39 +2368,39 @@
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
       <c r="K19" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="23" customFormat="1" ht="189">
       <c r="A20" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="E20" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="J20" s="33" t="s">
         <v>95</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="J20" s="33" t="s">
-        <v>71</v>
       </c>
       <c r="K20" s="16"/>
     </row>
@@ -2422,7 +2414,7 @@
     </row>
     <row r="23" spans="1:11" s="22" customFormat="1" ht="14.25" customHeight="1">
       <c r="B23" s="75" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C23" s="76"/>
       <c r="D23" s="76"/>
@@ -2541,7 +2533,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2550,35 +2542,35 @@
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="27"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="27"/>
       <c r="B5" s="27"/>
       <c r="C5" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="27"/>
       <c r="B6" s="27"/>
       <c r="C6" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="27"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">

--- a/chiloPro/template-series_english/structure-books.xlsx
+++ b/chiloPro/template-series_english/structure-books.xlsx
@@ -131,10 +131,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>series-title</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>book-summary</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -477,6 +473,10 @@
 ─────
 Enter the file name of Javascript you want to embed in the page.
 ※Not Standard CHiLO Book-capable.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>book-title</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1686,10 +1686,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="37.5" customHeight="1">
@@ -1698,10 +1698,10 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
@@ -1710,10 +1710,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
@@ -1722,10 +1722,10 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="62" t="s">
         <v>41</v>
-      </c>
-      <c r="D4" s="62" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="63"/>
     </row>
@@ -1744,17 +1744,17 @@
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="63"/>
     </row>
     <row r="7" spans="1:5" ht="14.25">
       <c r="A7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="39"/>
       <c r="C7" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D7" s="63"/>
     </row>
@@ -1764,7 +1764,7 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="64"/>
     </row>
@@ -1774,10 +1774,10 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25">
@@ -1786,10 +1786,10 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="28.5">
@@ -1798,10 +1798,10 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25">
@@ -1810,25 +1810,25 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25">
       <c r="A13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="40"/>
       <c r="C13" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25">
@@ -1837,31 +1837,31 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="62" t="s">
         <v>53</v>
-      </c>
-      <c r="D14" s="62" t="s">
-        <v>54</v>
       </c>
       <c r="E14" s="65"/>
     </row>
     <row r="15" spans="1:5" ht="14.25">
       <c r="A15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="63"/>
       <c r="E15" s="65"/>
     </row>
     <row r="16" spans="1:5" ht="14.25">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="64"/>
       <c r="E16" s="65"/>
@@ -1872,16 +1872,16 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="E17" s="65"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="54"/>
       <c r="C19" s="55"/>
@@ -1939,22 +1939,22 @@
   <sheetData>
     <row r="1" spans="1:7" s="52" customFormat="1" ht="15" thickBot="1">
       <c r="A1" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="51" t="s">
+      <c r="E1" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="51" t="s">
         <v>26</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="51" t="s">
-        <v>27</v>
       </c>
       <c r="G1" s="51" t="s">
         <v>13</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="2" spans="1:7" s="52" customFormat="1" ht="37.5" customHeight="1" thickTop="1">
       <c r="A2" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="46"/>
@@ -1991,25 +1991,25 @@
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="114">
       <c r="A5" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="C5" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="D5" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="29" t="s">
+      <c r="G5" s="29" t="s">
         <v>63</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="28.5">
@@ -2018,7 +2018,7 @@
       <c r="C6" s="30"/>
       <c r="F6" s="30"/>
       <c r="G6" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2040,7 +2040,7 @@
     <row r="9" spans="1:7" ht="13.5" customHeight="1">
       <c r="A9" s="22"/>
       <c r="B9" s="66" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="67"/>
       <c r="D9" s="68"/>
@@ -2112,16 +2112,16 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1">
       <c r="A1" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>92</v>
-      </c>
       <c r="D1" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E1" s="24" t="s">
         <v>18</v>
@@ -2142,7 +2142,7 @@
         <v>23</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickTop="1">
@@ -2368,39 +2368,39 @@
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
       <c r="K19" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="23" customFormat="1" ht="189">
       <c r="A20" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="33" t="s">
+      <c r="E20" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="33" t="s">
         <v>94</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="I20" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="J20" s="33" t="s">
-        <v>95</v>
       </c>
       <c r="K20" s="16"/>
     </row>
@@ -2414,7 +2414,7 @@
     </row>
     <row r="23" spans="1:11" s="22" customFormat="1" ht="14.25" customHeight="1">
       <c r="B23" s="75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="76"/>
       <c r="D23" s="76"/>
@@ -2533,7 +2533,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2542,35 +2542,35 @@
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="27"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="27"/>
       <c r="B5" s="27"/>
       <c r="C5" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="27"/>
       <c r="B6" s="27"/>
       <c r="C6" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="27"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">

--- a/chiloPro/template-series_english/structure-books.xlsx
+++ b/chiloPro/template-series_english/structure-books.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13065" windowHeight="7200" tabRatio="827"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11610" tabRatio="827"/>
   </bookViews>
   <sheets>
     <sheet name="series-information" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="text">#REF!</definedName>
     <definedName name="type">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -121,9 +121,6 @@
     <t>javascript-file</t>
   </si>
   <si>
-    <t>youtube-id</t>
-  </si>
-  <si>
     <t>CC</t>
   </si>
   <si>
@@ -387,10 +384,6 @@
   </si>
   <si>
     <t>og:site_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>page-type（required）</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -447,12 +440,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>chapter（required after B2）</t>
-  </si>
-  <si>
-    <t>section</t>
-  </si>
-  <si>
     <t>Chapter title
 ────────</t>
     <phoneticPr fontId="1"/>
@@ -477,6 +464,22 @@
   </si>
   <si>
     <t>book-title</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>page-type（required）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>section-title(required)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>topic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>video-id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1686,10 +1689,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="37.5" customHeight="1">
@@ -1698,10 +1701,10 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
@@ -1710,10 +1713,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
@@ -1722,10 +1725,10 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="62" t="s">
         <v>40</v>
-      </c>
-      <c r="D4" s="62" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
@@ -1734,7 +1737,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="63"/>
     </row>
@@ -1744,17 +1747,17 @@
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="63"/>
     </row>
     <row r="7" spans="1:5" ht="14.25">
       <c r="A7" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B7" s="39"/>
       <c r="C7" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D7" s="63"/>
     </row>
@@ -1764,7 +1767,7 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="64"/>
     </row>
@@ -1774,10 +1777,10 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25">
@@ -1786,10 +1789,10 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="28.5">
@@ -1798,10 +1801,10 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25">
@@ -1810,58 +1813,58 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25">
       <c r="A13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="40"/>
       <c r="C13" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.25" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="62" t="s">
         <v>52</v>
-      </c>
-      <c r="D14" s="62" t="s">
-        <v>53</v>
       </c>
       <c r="E14" s="65"/>
     </row>
     <row r="15" spans="1:5" ht="14.25">
       <c r="A15" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="63"/>
       <c r="E15" s="65"/>
     </row>
     <row r="16" spans="1:5" ht="14.25">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="64"/>
       <c r="E16" s="65"/>
@@ -1872,16 +1875,16 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="E17" s="65"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="54"/>
       <c r="C19" s="55"/>
@@ -1939,22 +1942,22 @@
   <sheetData>
     <row r="1" spans="1:7" s="52" customFormat="1" ht="15" thickBot="1">
       <c r="A1" s="51" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C1" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="51" t="s">
         <v>25</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="51" t="s">
-        <v>26</v>
       </c>
       <c r="G1" s="51" t="s">
         <v>13</v>
@@ -1962,7 +1965,7 @@
     </row>
     <row r="2" spans="1:7" s="52" customFormat="1" ht="37.5" customHeight="1" thickTop="1">
       <c r="A2" s="41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="46"/>
@@ -1991,25 +1994,25 @@
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="114">
       <c r="A5" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="C5" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="D5" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="29" t="s">
+      <c r="G5" s="29" t="s">
         <v>62</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="28.5">
@@ -2018,7 +2021,7 @@
       <c r="C6" s="30"/>
       <c r="F6" s="30"/>
       <c r="G6" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2040,7 +2043,7 @@
     <row r="9" spans="1:7" ht="13.5" customHeight="1">
       <c r="A9" s="22"/>
       <c r="B9" s="66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" s="67"/>
       <c r="D9" s="68"/>
@@ -2112,16 +2115,16 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1">
       <c r="A1" s="24" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E1" s="24" t="s">
         <v>18</v>
@@ -2136,13 +2139,13 @@
         <v>21</v>
       </c>
       <c r="I1" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="24" t="s">
-        <v>23</v>
-      </c>
       <c r="K1" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickTop="1">
@@ -2368,39 +2371,39 @@
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
       <c r="K19" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="23" customFormat="1" ht="189">
       <c r="A20" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="34" t="s">
+      <c r="E20" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="F20" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="G20" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="33" t="s">
-        <v>68</v>
-      </c>
       <c r="H20" s="33" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K20" s="16"/>
     </row>
@@ -2414,7 +2417,7 @@
     </row>
     <row r="23" spans="1:11" s="22" customFormat="1" ht="14.25" customHeight="1">
       <c r="B23" s="75" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="76"/>
       <c r="D23" s="76"/>
@@ -2533,44 +2536,44 @@
         <v>1</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="27"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="27"/>
       <c r="B5" s="27"/>
       <c r="C5" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="27"/>
       <c r="B6" s="27"/>
       <c r="C6" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="27"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">

--- a/chiloPro/template-series_english/structure-books.xlsx
+++ b/chiloPro/template-series_english/structure-books.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>version</t>
     <phoneticPr fontId="1"/>
@@ -80,17 +80,6 @@
   <si>
     <t>cover</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fb:admins</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>google-analytics-id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>epub-download-url</t>
   </si>
   <si>
     <t>page-type</t>
@@ -238,35 +227,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>fb:admins specified in OGP of Web CHiLO Book</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>When OGP is not set, there is no need to enter.
-For more details about OGP, go to http://ogp.me.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>fb:app_id specified in OGP of Web CHiLO Book</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Website name specified in OGP of Web CHiLO Book</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Tracking ID utilized in Web CHiLO Book</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">When the CHiLO Book is not intended for Google custom search, there is no need to enter. </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>When outputting Web CHiLO Book, necessary to enter.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>（Required）Number of volumes
 ──────
 Listed in order in vol-n format.</t>
@@ -291,13 +251,6 @@
 ────────────
 You are able to specify any SNS, such as Facebook, Twitter, or Moodle forum, as CHiLO Community.
  When left blank, the community icon will not be displayed.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>URL for downloading Hybrid CHiLO Book
-─────────────────
-URL for downloading Hybrid CHiLO Book displayed on Web CHiLO Book
-When left blank, the download icon will not be displayed.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -373,17 +326,6 @@
   </si>
   <si>
     <t>（Required）Issued date of first edition</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>deploy-url</t>
-  </si>
-  <si>
-    <t>fb-app-id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>og:site_name</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -408,10 +350,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Specified URL in OGP of Web CHiLO Book</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Cover Image
 ―――――――――――――
 Name of file with cover image (leave blank when there is no cover image).</t>
@@ -424,10 +362,6 @@
   <si>
     <t>Date of revision</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>To upload Web CHiLO Book, enter the part before "/vol-x-html/"of the URL.</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Unique ID of CHiLO Book
@@ -642,7 +576,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -741,15 +675,6 @@
       <bottom style="hair">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1069,7 +994,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1097,18 +1022,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -1136,13 +1061,13 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -1151,30 +1076,27 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1201,50 +1123,46 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="37" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="37" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="37" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1252,6 +1170,9 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1261,12 +1182,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1276,9 +1197,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1288,8 +1206,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1300,12 +1218,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1315,7 +1233,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1327,12 +1245,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1340,9 +1258,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1668,7 +1583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
@@ -1681,7 +1596,7 @@
     <col min="5" max="5" width="48.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25">
+    <row r="1" spans="1:4" ht="14.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1689,228 +1604,163 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="37.5" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="37.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="62" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.25">
+        <v>36</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="63"/>
-    </row>
-    <row r="6" spans="1:5" ht="14.25">
+        <v>38</v>
+      </c>
+      <c r="D5" s="61"/>
+    </row>
+    <row r="6" spans="1:4" ht="14.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="38"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="63"/>
-    </row>
-    <row r="7" spans="1:5" ht="14.25">
+        <v>64</v>
+      </c>
+      <c r="D6" s="61"/>
+    </row>
+    <row r="7" spans="1:4" ht="14.25">
       <c r="A7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="39"/>
+        <v>71</v>
+      </c>
+      <c r="B7" s="38"/>
       <c r="C7" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="63"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1">
+        <v>69</v>
+      </c>
+      <c r="D7" s="61"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="64"/>
-    </row>
-    <row r="9" spans="1:5" ht="85.5">
+        <v>39</v>
+      </c>
+      <c r="D8" s="62"/>
+    </row>
+    <row r="9" spans="1:4" ht="85.5">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="28.5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.5">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.25">
-      <c r="A13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="65" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="65"/>
-    </row>
-    <row r="15" spans="1:5" ht="14.25">
-      <c r="A15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="65"/>
-    </row>
-    <row r="16" spans="1:5" ht="14.25">
-      <c r="A16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="65"/>
-    </row>
-    <row r="17" spans="1:5" ht="14.25">
-      <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="65"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="55"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="56"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="58"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="56"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="58"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="59"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="61"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="54"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="56"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="54"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="56"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="57"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="4">
-    <mergeCell ref="A19:C22"/>
+  <mergeCells count="2">
+    <mergeCell ref="A14:C17"/>
     <mergeCell ref="D4:D8"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E13:E17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1925,7 +1775,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
@@ -1937,144 +1787,129 @@
     <col min="4" max="4" width="32.75" style="7" customWidth="1"/>
     <col min="5" max="5" width="46.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.25" customWidth="1"/>
-    <col min="7" max="7" width="37.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="52" customFormat="1" ht="15" thickBot="1">
-      <c r="A1" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="51" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="52" customFormat="1" ht="37.5" customHeight="1" thickTop="1">
-      <c r="A2" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-    </row>
-    <row r="3" spans="1:7" s="52" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A3" s="48"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-    </row>
-    <row r="4" spans="1:7" s="52" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A4" s="48"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-    </row>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="114">
+    <row r="1" spans="1:6" s="50" customFormat="1" ht="15" thickBot="1">
+      <c r="A1" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="50" customFormat="1" ht="37.5" customHeight="1" thickTop="1">
+      <c r="A2" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="45"/>
+    </row>
+    <row r="3" spans="1:6" s="50" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A3" s="46"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="45"/>
+    </row>
+    <row r="4" spans="1:6" s="50" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A4" s="46"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="41"/>
+    </row>
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="114">
       <c r="A5" s="29" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="7" customFormat="1" ht="28.5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="7" customFormat="1">
       <c r="A6" s="30"/>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
       <c r="F6" s="30"/>
-      <c r="G6" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
-      <c r="D7" s="44"/>
+      <c r="D7" s="42"/>
       <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:7" ht="13.5">
+    </row>
+    <row r="8" spans="1:6" ht="13.5">
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
       <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:7" ht="13.5" customHeight="1">
+    </row>
+    <row r="9" spans="1:6" ht="13.5" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="68"/>
+      <c r="B9" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="64"/>
+      <c r="D9" s="65"/>
       <c r="F9" s="22"/>
     </row>
-    <row r="10" spans="1:7" ht="13.5" customHeight="1">
+    <row r="10" spans="1:6" ht="13.5" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="71"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="68"/>
       <c r="F10" s="22"/>
     </row>
-    <row r="11" spans="1:7" ht="13.5" customHeight="1">
+    <row r="11" spans="1:6" ht="13.5" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="71"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
       <c r="F11" s="22"/>
     </row>
-    <row r="12" spans="1:7" ht="13.5" customHeight="1">
+    <row r="12" spans="1:6" ht="13.5" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="71"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:7" ht="13.5" customHeight="1">
+    <row r="13" spans="1:6" ht="13.5" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="74"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="71"/>
       <c r="F13" s="22"/>
     </row>
   </sheetData>
@@ -2115,37 +1950,37 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1">
       <c r="A1" s="24" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E1" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="I1" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>22</v>
-      </c>
       <c r="K1" s="11" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickTop="1">
@@ -2371,99 +2206,99 @@
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
       <c r="K19" s="15" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="23" customFormat="1" ht="189">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" s="33" t="s">
+      <c r="J20" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="J20" s="33" t="s">
-        <v>90</v>
-      </c>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11" s="35" customFormat="1">
-      <c r="D21" s="36"/>
-      <c r="K21" s="37"/>
-    </row>
-    <row r="22" spans="1:11" s="35" customFormat="1">
-      <c r="D22" s="36"/>
-      <c r="K22" s="37"/>
+    <row r="21" spans="1:11" s="34" customFormat="1">
+      <c r="D21" s="35"/>
+      <c r="K21" s="36"/>
+    </row>
+    <row r="22" spans="1:11" s="34" customFormat="1">
+      <c r="D22" s="35"/>
+      <c r="K22" s="36"/>
     </row>
     <row r="23" spans="1:11" s="22" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B23" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="77"/>
+      <c r="B23" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="74"/>
       <c r="K23" s="12"/>
     </row>
     <row r="24" spans="1:11" s="22" customFormat="1">
-      <c r="B24" s="78"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="80"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="77"/>
       <c r="K24" s="12"/>
     </row>
     <row r="25" spans="1:11" s="22" customFormat="1">
-      <c r="B25" s="78"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="80"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="77"/>
       <c r="K25" s="12"/>
     </row>
     <row r="26" spans="1:11" s="22" customFormat="1">
-      <c r="B26" s="78"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="80"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="77"/>
       <c r="K26" s="12"/>
     </row>
     <row r="27" spans="1:11" s="22" customFormat="1">
-      <c r="B27" s="78"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="80"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="77"/>
       <c r="K27" s="12"/>
     </row>
     <row r="28" spans="1:11" s="22" customFormat="1">
-      <c r="B28" s="78"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="80"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="77"/>
       <c r="K28" s="12"/>
     </row>
     <row r="29" spans="1:11" s="22" customFormat="1">
-      <c r="B29" s="81"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="83"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="80"/>
       <c r="K29" s="12"/>
     </row>
   </sheetData>
@@ -2519,61 +2354,61 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" thickBot="1">
       <c r="A1" s="24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25" thickTop="1">
       <c r="A2" s="25" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2" s="26" t="b">
         <v>1</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="27" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="27"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="27"/>
       <c r="B5" s="27"/>
       <c r="C5" s="27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="27"/>
       <c r="B6" s="27"/>
       <c r="C6" s="27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="27"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3">

--- a/chiloPro/template-series_english/structure-books.xlsx
+++ b/chiloPro/template-series_english/structure-books.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11610" tabRatio="827"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11610" tabRatio="827" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="series-information" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="text">#REF!</definedName>
     <definedName name="type">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>version</t>
     <phoneticPr fontId="1"/>
@@ -147,84 +147,6 @@
 ・The cells  not allowed to be modified, are protected. There are no passwords for its cancellation.
 </t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Administration version of structure file </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>The version information entered here will not be used in the output CHiLO Book.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（Required）Language used in the book</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The language will be listed as "ja", "en according to the RFC 5646 format.
-The input language will be configured as dc:language of the epub3 package doccument.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>（Required）Name of the author</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>It will be inserted in the "Copyright" page. Conform with the specified sheet name in author.xlsx.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Name of issuer</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>It will be inserted in the"Copyright" page. When left blank, this item will not apear on the list.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Name of editor</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Owner of copyright</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（Required）Name of series of CHiLO Book</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">The title of the CHiLO Book will be 
-series-name &amp; " " &amp; Chapter n &amp; " " &amp;  book-title (defined in book-list sheet）.
-This Book title will be set in dc:title of epub3 packaged document as well as the "Copyright " page.
-Also, it will be inserted in the name file of Hybrid CHiLOBook. 
-The name of the file is: output-name &amp; series-name &amp; - &amp; vol-n &amp; .epub3.                                                                                                                            </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Introduction of the series</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>It will be inserted in the "Introducton of theSeries" page of the "Readme" section.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>URL of the series introduction page</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Enter when there is a homepage for introducing the series.
-It will be inserted below the introduction text of the "Introduction of the Series" page.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Name of "B. Inside cover" file of "essential materials"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>It will be used as the inside cover image for each section.</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>（Required）Number of volumes
@@ -254,37 +176,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Page type 
-──────
-Type of page
-document…explanaiton page
-test…test page</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Display CHiLO Community
 ──────────
 Choose "TRUE" to display link button for entering CHiLO Community.Fill in only when you want tp display the community-url.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Main contents of the page
-────────────
-The main contents will differ according to the page-type.
-cover…File name of cover image.（Leave blank when there is no cover image.）
-document…File name of the explanation video
-test…URL of the assignment test of Moodle</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Name of thumbnail of the explanation video
-────────────
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>File name of the explanation text
-─────</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -314,18 +208,6 @@
   </si>
   <si>
     <t>vol-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Youtube ID of the explanation video 
-─────
-When delivering the explanation videos of Web CHiLO Book from Youtube, enter the video ID included in the registered Youtube video URL.
-(e.g.) The part after "?v=" of the URL: https://www.youtube.com/watch?v=W6l-nifsu6w
-Note：When you enter the ID, videos cannot be played in local environment.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（Required）Issued date of first edition</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -360,10 +242,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Date of revision</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Unique ID of CHiLO Book
 ──────────────────
 It will be configured as identifier of epub3 pakage document (an opf format document).</t>
@@ -374,46 +252,147 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Chapter title
-────────</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Section title
 ───────
 When page-type is the test, no need to enter.</t>
   </si>
   <si>
+    <t>book-title</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>page-type（required）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>section-title(required)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>topic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>video-id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Administration version of structure file </t>
+  </si>
+  <si>
+    <t>Language used in the book</t>
+  </si>
+  <si>
+    <t>* Required
+* The language will be listed as "ja", "en" according to the RFC 5646 format.</t>
+  </si>
+  <si>
+    <t>Name of the sheet created in "author.xlsx".</t>
+  </si>
+  <si>
+    <t>* Required</t>
+  </si>
+  <si>
+    <t>Name of issuer</t>
+  </si>
+  <si>
+    <t>* Required
+* It will be inserted in the"Copyright" page. When left blank, this item will not apear on the list.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Name of editor</t>
+  </si>
+  <si>
+    <t>Issued date of first edition</t>
+  </si>
+  <si>
+    <t>Date of revision</t>
+  </si>
+  <si>
+    <t>Owner of copyright</t>
+  </si>
+  <si>
+    <t>Name of series of CHiLO Book</t>
+  </si>
+  <si>
+    <t>* Required</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Introduction of the series</t>
+  </si>
+  <si>
+    <t>* It will be inserted in the "Introducton" page of the "Readme" section.</t>
+  </si>
+  <si>
+    <t>URL of the series introduction page</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* It will be inserted below the introduction text of the "Introduction" page.</t>
+  </si>
+  <si>
+    <t>Name of "B. Inside cover" file of "essential materials"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* It will be used as the inside cover image for each section.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Page type 
+──────
+Type of page
+document…explanaiton page
+test…test page
+Enter in lowercase characters.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chapter title
+────────</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Main contents of the page
+────────────
+The main contents will differ according to the page-type.
+cover…File name of cover image.（Leave blank when there is no cover image.）
+document…File name of the explanation video
+test…URL of the assignment test of Moodle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Name of thumbnail of the explanation video
+────────────
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>File name of the explanation text
+─────</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">File name of Javascript
+─────
+Enter the file name of Javascript you want to embed in the page.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Youtube ID of the explanation video 
+─────
+When delivering the explanation videos of Web CHiLO Book from Youtube, enter the video ID included in the registered Youtube video URL.
+(e.g.) The part after "?v=" of the URL: https://www.youtube.com/watch?v=W6l-nifsu6w
+Note：When you enter the ID, videos cannot be played in local environment.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t xml:space="preserve">CCBY licence
 ────────
 Unnecessary to enter when not CCBY. </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>File name of Javascript
-─────
-Enter the file name of Javascript you want to embed in the page.
-※Not Standard CHiLO Book-capable.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>book-title</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>page-type（required）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>section-title(required)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>topic</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>video-id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -424,7 +403,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,14 +502,6 @@
       <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.34998626667073579"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -540,6 +511,30 @@
       <color theme="0" tint="-0.499984740745262"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -576,7 +571,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -638,30 +633,6 @@
       <bottom style="hair">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1013,27 +984,21 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -1061,55 +1026,46 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -1123,46 +1079,46 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="37" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="37" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1170,40 +1126,37 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1212,25 +1165,25 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1239,26 +1192,44 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1585,7 +1556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
@@ -1603,23 +1574,21 @@
       <c r="B1" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="C1" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="74"/>
     </row>
     <row r="2" spans="1:4" ht="37.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>33</v>
+      <c r="C2" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="74" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25">
@@ -1627,11 +1596,11 @@
         <v>3</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>35</v>
+      <c r="C3" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="74" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
@@ -1639,11 +1608,11 @@
         <v>1</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>37</v>
+      <c r="C4" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="75" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25">
@@ -1651,51 +1620,51 @@
         <v>6</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="61"/>
+      <c r="C5" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="75"/>
     </row>
     <row r="6" spans="1:4" ht="14.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="61"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="75"/>
     </row>
     <row r="7" spans="1:4" ht="14.25">
       <c r="A7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="61"/>
+        <v>46</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="75"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="62"/>
-    </row>
-    <row r="9" spans="1:4" ht="85.5">
+      <c r="C8" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="75"/>
+    </row>
+    <row r="9" spans="1:4" ht="14.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>41</v>
+      <c r="C9" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="74" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.25">
@@ -1703,23 +1672,23 @@
         <v>8</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="28.5">
+      <c r="C10" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>45</v>
+      <c r="C11" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25">
@@ -1727,34 +1696,34 @@
         <v>10</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>47</v>
+      <c r="C12" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="74" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="53"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="54"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="56"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="54"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="51"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="57"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="59"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -1784,133 +1753,133 @@
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="56.125" customWidth="1"/>
     <col min="3" max="3" width="39.375" customWidth="1"/>
-    <col min="4" max="4" width="32.75" style="7" customWidth="1"/>
+    <col min="4" max="4" width="32.75" style="5" customWidth="1"/>
     <col min="5" max="5" width="46.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="50" customFormat="1" ht="15" thickBot="1">
-      <c r="A1" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="49" t="s">
+    <row r="1" spans="1:6" s="45" customFormat="1" ht="15" thickBot="1">
+      <c r="A1" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="49" t="s">
+      <c r="D1" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="44" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="50" customFormat="1" ht="37.5" customHeight="1" thickTop="1">
-      <c r="A2" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="45"/>
-    </row>
-    <row r="3" spans="1:6" s="50" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A3" s="46"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="45"/>
-    </row>
-    <row r="4" spans="1:6" s="50" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A4" s="46"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="41"/>
-    </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="114">
-      <c r="A5" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="7" customFormat="1">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="F6" s="30"/>
+    <row r="2" spans="1:6" s="45" customFormat="1" ht="37.5" customHeight="1" thickTop="1">
+      <c r="A2" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="40"/>
+    </row>
+    <row r="3" spans="1:6" s="45" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A3" s="41"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="40"/>
+    </row>
+    <row r="4" spans="1:6" s="45" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A4" s="41"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="36"/>
+    </row>
+    <row r="5" spans="1:6" s="5" customFormat="1" ht="114">
+      <c r="A5" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="77" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="5" customFormat="1">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="42"/>
-      <c r="F7" s="22"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="37"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:6" ht="13.5">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="F8" s="22"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="63" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="65"/>
-      <c r="F9" s="22"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="68"/>
-      <c r="F10" s="22"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A11" s="22"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="68"/>
-      <c r="F11" s="22"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="60"/>
+      <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A12" s="22"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="68"/>
-      <c r="F12" s="22"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A13" s="22"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="71"/>
-      <c r="F13" s="22"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
+      <c r="F13" s="20"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -1932,7 +1901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
@@ -1945,361 +1914,361 @@
     <col min="8" max="8" width="27.75" customWidth="1"/>
     <col min="9" max="9" width="31.25" customWidth="1"/>
     <col min="10" max="10" width="15.625" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="14"/>
+    <col min="11" max="11" width="8.875" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickTop="1">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="15"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="16"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="16"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" s="20" customFormat="1">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="21" customFormat="1" ht="189">
+      <c r="A20" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="79" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="I20" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="J20" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" thickTop="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="13"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="13"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="15"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="16"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="17"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="18"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="18"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" spans="1:11" s="22" customFormat="1">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="23" customFormat="1" ht="189">
-      <c r="A20" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="I20" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="J20" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="K20" s="16"/>
-    </row>
-    <row r="21" spans="1:11" s="34" customFormat="1">
-      <c r="D21" s="35"/>
-      <c r="K21" s="36"/>
-    </row>
-    <row r="22" spans="1:11" s="34" customFormat="1">
-      <c r="D22" s="35"/>
-      <c r="K22" s="36"/>
-    </row>
-    <row r="23" spans="1:11" s="22" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B23" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="74"/>
-      <c r="K23" s="12"/>
-    </row>
-    <row r="24" spans="1:11" s="22" customFormat="1">
-      <c r="B24" s="75"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="77"/>
-      <c r="K24" s="12"/>
-    </row>
-    <row r="25" spans="1:11" s="22" customFormat="1">
-      <c r="B25" s="75"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="77"/>
-      <c r="K25" s="12"/>
-    </row>
-    <row r="26" spans="1:11" s="22" customFormat="1">
-      <c r="B26" s="75"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="77"/>
-      <c r="K26" s="12"/>
-    </row>
-    <row r="27" spans="1:11" s="22" customFormat="1">
-      <c r="B27" s="75"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="77"/>
-      <c r="K27" s="12"/>
-    </row>
-    <row r="28" spans="1:11" s="22" customFormat="1">
-      <c r="B28" s="75"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="77"/>
-      <c r="K28" s="12"/>
-    </row>
-    <row r="29" spans="1:11" s="22" customFormat="1">
-      <c r="B29" s="78"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="80"/>
-      <c r="K29" s="12"/>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="1:11" s="29" customFormat="1">
+      <c r="D21" s="30"/>
+      <c r="K21" s="31"/>
+    </row>
+    <row r="22" spans="1:11" s="29" customFormat="1">
+      <c r="D22" s="30"/>
+      <c r="K22" s="31"/>
+    </row>
+    <row r="23" spans="1:11" s="20" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B23" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="66"/>
+      <c r="K23" s="10"/>
+    </row>
+    <row r="24" spans="1:11" s="20" customFormat="1">
+      <c r="B24" s="67"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="69"/>
+      <c r="K24" s="10"/>
+    </row>
+    <row r="25" spans="1:11" s="20" customFormat="1">
+      <c r="B25" s="67"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="69"/>
+      <c r="K25" s="10"/>
+    </row>
+    <row r="26" spans="1:11" s="20" customFormat="1">
+      <c r="B26" s="67"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="69"/>
+      <c r="K26" s="10"/>
+    </row>
+    <row r="27" spans="1:11" s="20" customFormat="1">
+      <c r="B27" s="67"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="69"/>
+      <c r="K27" s="10"/>
+    </row>
+    <row r="28" spans="1:11" s="20" customFormat="1">
+      <c r="B28" s="67"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="69"/>
+      <c r="K28" s="10"/>
+    </row>
+    <row r="29" spans="1:11" s="20" customFormat="1">
+      <c r="B29" s="70"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="72"/>
+      <c r="K29" s="10"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -2353,68 +2322,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" thickBot="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25" thickTop="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="26" t="b">
+      <c r="B2" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="23" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27" t="s">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27" t="s">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
